--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - Macroeconomic Populism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{374FA53E-6371-4DC4-9463-D8571967F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83B6E885-C1C0-432F-A7B8-B9B375646E2B}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{374FA53E-6371-4DC4-9463-D8571967F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCD891B-B26D-413C-B708-2A21F4B4E3AF}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="2580" windowWidth="16755" windowHeight="8970" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="D&amp;E" sheetId="3" r:id="rId4"/>
     <sheet name="Complete" sheetId="4" r:id="rId5"/>
     <sheet name="ARG" sheetId="7" r:id="rId6"/>
-    <sheet name="Comparisons" sheetId="5" r:id="rId7"/>
+    <sheet name="ECU" sheetId="8" r:id="rId7"/>
+    <sheet name="Comparisons" sheetId="5" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +37,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mgQtzz8o/ekF5C1+UTtVg+13osixw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mgQtzz8o/ekF5C1+UTtVg+13osixw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="85">
   <si>
     <t>CEPAL</t>
   </si>
@@ -273,36 +274,6 @@
     <t>GDP Per Capita</t>
   </si>
   <si>
-    <t>Country Name</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>Series Name</t>
-  </si>
-  <si>
-    <t>Fuel exports (% of merchandise exports)</t>
-  </si>
-  <si>
-    <t>Fuel imports (% of merchandise imports)</t>
-  </si>
-  <si>
-    <t>Series Code</t>
-  </si>
-  <si>
-    <t>TX.VAL.FUEL.ZS.UN</t>
-  </si>
-  <si>
-    <t>TM.VAL.FUEL.ZS.UN</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>YEAR</t>
   </si>
   <si>
@@ -322,12 +293,6 @@
   </si>
   <si>
     <t>INFLATION</t>
-  </si>
-  <si>
-    <t>X_ENERGY</t>
-  </si>
-  <si>
-    <t>Z_ENERGY</t>
   </si>
   <si>
     <t>NX_ENERGY</t>
@@ -885,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1084,25 +1049,28 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,393 +1111,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'NX ENERGY'!$A$45:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'NX ENERGY'!$D$45:$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>13.95476533275718</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.101625410669065</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.266584957608316</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.631401983802984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.894619964120356</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.429952573913804</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.563674508747912</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9060331705025693</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1750898208462921</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8789189676506552</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2526093435423213E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-6.7456473041288838</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.6325566311006678</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-11.466866579580016</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-11.87849791722104</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-8.3980865386705954</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-5.9134253545239019</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-5.3819170265397958</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-5.4730775008670705</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-4.9385296700889594</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.3790725951757126</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-201C-4FBC-AD72-899DADE365E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1966522047"/>
-        <c:axId val="1966517471"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1966522047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1966517471"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1966517471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1966522047"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2714,7 +2295,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3895,7 +3476,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5056,7 +4637,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6307,46 +5888,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8450,564 +7991,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>611980</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2380</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>40481</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C8389C-CA07-4570-ABB4-27FE048E1316}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10000,7 +8984,7 @@
   <dimension ref="A1:CJ1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
@@ -10111,106 +9095,106 @@
     </row>
     <row r="2" spans="1:88" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="132" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="124" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="127" t="s">
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="129" t="s">
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="129"/>
+      <c r="AH2" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="130"/>
-      <c r="AP2" s="131" t="s">
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="132" t="s">
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="126"/>
+      <c r="AS2" s="126"/>
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125"/>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="124" t="s">
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="125"/>
-      <c r="BK2" s="125"/>
-      <c r="BL2" s="125"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="127" t="s">
+      <c r="BG2" s="126"/>
+      <c r="BH2" s="126"/>
+      <c r="BI2" s="126"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="127"/>
+      <c r="BN2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="BO2" s="125"/>
-      <c r="BP2" s="125"/>
-      <c r="BQ2" s="125"/>
-      <c r="BR2" s="125"/>
-      <c r="BS2" s="125"/>
-      <c r="BT2" s="125"/>
-      <c r="BU2" s="128"/>
-      <c r="BV2" s="129" t="s">
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="126"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="129"/>
+      <c r="BV2" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="BW2" s="125"/>
-      <c r="BX2" s="125"/>
-      <c r="BY2" s="125"/>
-      <c r="BZ2" s="125"/>
-      <c r="CA2" s="125"/>
-      <c r="CB2" s="125"/>
-      <c r="CC2" s="130"/>
+      <c r="BW2" s="126"/>
+      <c r="BX2" s="126"/>
+      <c r="BY2" s="126"/>
+      <c r="BZ2" s="126"/>
+      <c r="CA2" s="126"/>
+      <c r="CB2" s="126"/>
+      <c r="CC2" s="133"/>
       <c r="CH2" s="7"/>
       <c r="CI2" s="7"/>
       <c r="CJ2" s="7"/>
@@ -17967,16 +16951,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="R2:Y2"/>
     <mergeCell ref="Z2:AG2"/>
     <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="BF2:BM2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17985,852 +16969,426 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C084076-6048-49EC-9328-F7C9D6C14603}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="B7:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1960</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1961</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1962</v>
-      </c>
-      <c r="B7" s="118">
-        <v>1.0808466729778494</v>
-      </c>
-      <c r="C7" s="118">
-        <v>6.6885735701414903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1963</v>
-      </c>
-      <c r="B8" s="118">
-        <v>0.82261500703675505</v>
-      </c>
-      <c r="C8" s="118">
-        <v>5.8696888529166182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1964</v>
-      </c>
-      <c r="B9" s="118">
-        <v>0.43226886327661179</v>
-      </c>
-      <c r="C9" s="118">
-        <v>7.7796234978615111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1965</v>
-      </c>
-      <c r="B10" s="118">
-        <v>0.6155687208041476</v>
-      </c>
-      <c r="C10" s="118">
-        <v>9.6609142030986082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>1966</v>
-      </c>
-      <c r="B11" s="118">
-        <v>0.87862205699474338</v>
-      </c>
-      <c r="C11" s="118">
-        <v>9.65126038939637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>1967</v>
-      </c>
-      <c r="B12" s="118">
-        <v>0.52525865800809046</v>
-      </c>
-      <c r="C12" s="118">
-        <v>8.5723674486832646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>1968</v>
-      </c>
-      <c r="B13" s="118">
-        <v>0.90589516307280749</v>
-      </c>
-      <c r="C13" s="118">
-        <v>7.2469429258577414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1969</v>
-      </c>
-      <c r="B14" s="118">
-        <v>0.35879543750323062</v>
-      </c>
-      <c r="C14" s="118">
-        <v>6.7186270860207262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>1970</v>
-      </c>
-      <c r="B15" s="118">
-        <v>0.42998545782202624</v>
-      </c>
-      <c r="C15" s="118">
-        <v>4.7465949749467473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>1971</v>
-      </c>
-      <c r="B16" s="118">
-        <v>0.48801643876007772</v>
-      </c>
-      <c r="C16" s="118">
-        <v>6.6829679467208347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>1972</v>
-      </c>
-      <c r="B17" s="118">
-        <v>0.3224201892547589</v>
-      </c>
-      <c r="C17" s="118">
-        <v>3.7672988107816425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>1973</v>
-      </c>
-      <c r="B18" s="118">
-        <v>0.17139838237626026</v>
-      </c>
-      <c r="C18" s="118">
-        <v>7.5898260838792515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1974</v>
-      </c>
-      <c r="B19" s="118">
-        <v>0.31408827843594378</v>
-      </c>
-      <c r="C19" s="118">
-        <v>14.530166569823747</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1975</v>
-      </c>
-      <c r="B20" s="118">
-        <v>0.49493817188161471</v>
-      </c>
-      <c r="C20" s="118">
-        <v>13.227346044019411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>1976</v>
-      </c>
-      <c r="B21" s="118">
-        <v>0.50302741539639673</v>
-      </c>
-      <c r="C21" s="118">
-        <v>17.689527573199211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>1977</v>
-      </c>
-      <c r="B22" s="118">
-        <v>0.49233838891163778</v>
-      </c>
-      <c r="C22" s="118">
-        <v>16.397086069508983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>1978</v>
-      </c>
-      <c r="B23" s="118">
-        <v>0.80715251707934765</v>
-      </c>
-      <c r="C23" s="118">
-        <v>12.439642534301791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>1979</v>
-      </c>
-      <c r="B24" s="118">
-        <v>0.62153584019847463</v>
-      </c>
-      <c r="C24" s="118">
-        <v>16.566007363435837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>1980</v>
-      </c>
-      <c r="B25" s="118">
-        <v>3.4642869319384388</v>
-      </c>
-      <c r="C25" s="118">
-        <v>10.304022197761432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>1981</v>
-      </c>
-      <c r="B26" s="118">
-        <v>6.7809984773165191</v>
-      </c>
-      <c r="C26" s="118">
-        <v>10.834790031342626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>1982</v>
-      </c>
-      <c r="B27" s="118">
-        <v>7.1879411996419122</v>
-      </c>
-      <c r="C27" s="118">
-        <v>12.774109794633452</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>1983</v>
-      </c>
-      <c r="B28" s="118">
-        <v>4.2658323021754878</v>
-      </c>
-      <c r="C28" s="118">
-        <v>10.28828878625359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>1984</v>
-      </c>
-      <c r="B29" s="118">
-        <v>4.0910216740164218</v>
-      </c>
-      <c r="C29" s="118">
-        <v>10.420979780509457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>1985</v>
-      </c>
-      <c r="B30" s="118">
-        <v>7.3070235280723237</v>
-      </c>
-      <c r="C30" s="118">
-        <v>12.115361898229002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>1986</v>
-      </c>
-      <c r="B31" s="118">
-        <v>2.2412601183616587</v>
-      </c>
-      <c r="C31" s="118">
-        <v>8.976529695743702</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>1987</v>
-      </c>
-      <c r="B32" s="118">
-        <v>1.3430505101440342</v>
-      </c>
-      <c r="C32" s="118">
-        <v>11.417906195229984</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>1988</v>
-      </c>
-      <c r="B33" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>1989</v>
-      </c>
-      <c r="B34" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>1990</v>
-      </c>
-      <c r="B35" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>1991</v>
-      </c>
-      <c r="B36" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>1992</v>
-      </c>
-      <c r="B37" s="118">
-        <v>8.8393060550969178</v>
-      </c>
-      <c r="C37" s="118">
-        <v>2.8538972670216944</v>
-      </c>
-      <c r="D37" s="118">
-        <f>B37-C37</f>
-        <v>5.9854087880752234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>1993</v>
-      </c>
-      <c r="B38" s="118">
-        <v>9.4159646012918667</v>
-      </c>
-      <c r="C38" s="118">
-        <v>2.3992296102276751</v>
-      </c>
-      <c r="D38" s="118">
-        <f t="shared" ref="D38:D65" si="0">B38-C38</f>
-        <v>7.0167349910641921</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>1994</v>
-      </c>
-      <c r="B39" s="118">
-        <v>10.4211813944822</v>
-      </c>
-      <c r="C39" s="118">
-        <v>2.9324895132906619</v>
-      </c>
-      <c r="D39" s="118">
-        <f t="shared" si="0"/>
-        <v>7.4886918811915386</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>1995</v>
-      </c>
-      <c r="B40" s="118">
-        <v>10.339850045409996</v>
-      </c>
-      <c r="C40" s="118">
-        <v>4.1945916522307334</v>
-      </c>
-      <c r="D40" s="118">
-        <f t="shared" si="0"/>
-        <v>6.1452583931792626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>1996</v>
-      </c>
-      <c r="B41" s="118">
-        <v>12.969009861261101</v>
-      </c>
-      <c r="C41" s="118">
-        <v>3.6361851209611316</v>
-      </c>
-      <c r="D41" s="118">
-        <f t="shared" si="0"/>
-        <v>9.3328247402999693</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>1997</v>
-      </c>
-      <c r="B42" s="118">
-        <v>11.698574402235792</v>
-      </c>
-      <c r="C42" s="118">
-        <v>2.9585515941514173</v>
-      </c>
-      <c r="D42" s="118">
-        <f t="shared" si="0"/>
-        <v>8.7400228080843743</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>1998</v>
-      </c>
-      <c r="B43" s="118">
-        <v>8.6117644784647425</v>
-      </c>
-      <c r="C43" s="118">
-        <v>2.5443646224009639</v>
-      </c>
-      <c r="D43" s="118">
-        <f t="shared" si="0"/>
-        <v>6.0673998560637781</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>1999</v>
-      </c>
-      <c r="B44" s="118">
-        <v>12.116823827839935</v>
-      </c>
-      <c r="C44" s="118">
-        <v>2.6496558528026153</v>
-      </c>
-      <c r="D44" s="118">
-        <f t="shared" si="0"/>
-        <v>9.4671679750373201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>2000</v>
-      </c>
-      <c r="B45" s="118">
-        <v>17.624183060522526</v>
-      </c>
-      <c r="C45" s="118">
-        <v>3.6694177277653459</v>
-      </c>
-      <c r="D45" s="118">
-        <f t="shared" si="0"/>
-        <v>13.95476533275718</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>2001</v>
-      </c>
-      <c r="B46" s="118">
-        <v>17.027214336681499</v>
-      </c>
-      <c r="C46" s="118">
-        <v>3.9255889260124346</v>
-      </c>
-      <c r="D46" s="118">
-        <f t="shared" si="0"/>
-        <v>13.101625410669065</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>2002</v>
-      </c>
-      <c r="B47" s="118">
-        <v>17.006237905599239</v>
-      </c>
-      <c r="C47" s="118">
-        <v>4.7396529479909217</v>
-      </c>
-      <c r="D47" s="118">
-        <f t="shared" si="0"/>
-        <v>12.266584957608316</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>2003</v>
-      </c>
-      <c r="B48" s="118">
-        <v>17.083063385541255</v>
-      </c>
-      <c r="C48" s="118">
-        <v>3.4516614017382716</v>
-      </c>
-      <c r="D48" s="118">
-        <f t="shared" si="0"/>
-        <v>13.631401983802984</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>2004</v>
-      </c>
-      <c r="B49" s="118">
-        <v>16.000289852306661</v>
-      </c>
-      <c r="C49" s="118">
-        <v>4.1056698881863065</v>
-      </c>
-      <c r="D49" s="118">
-        <f t="shared" si="0"/>
-        <v>11.894619964120356</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>2005</v>
-      </c>
-      <c r="B50" s="118">
-        <v>16.396145563740262</v>
-      </c>
-      <c r="C50" s="118">
-        <v>4.9661929898264585</v>
-      </c>
-      <c r="D50" s="118">
-        <f t="shared" si="0"/>
-        <v>11.429952573913804</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>2006</v>
-      </c>
-      <c r="B51" s="118">
-        <v>15.2633165831813</v>
-      </c>
-      <c r="C51" s="118">
-        <v>4.6996420744333873</v>
-      </c>
-      <c r="D51" s="118">
-        <f t="shared" si="0"/>
-        <v>10.563674508747912</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>2007</v>
-      </c>
-      <c r="B52" s="118">
-        <v>10.92630873147332</v>
-      </c>
-      <c r="C52" s="118">
-        <v>6.0202755609707506</v>
-      </c>
-      <c r="D52" s="118">
-        <f t="shared" si="0"/>
-        <v>4.9060331705025693</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>2008</v>
-      </c>
-      <c r="B53" s="118">
-        <v>9.3709820098464007</v>
-      </c>
-      <c r="C53" s="118">
-        <v>7.1958921890001086</v>
-      </c>
-      <c r="D53" s="118">
-        <f t="shared" si="0"/>
-        <v>2.1750898208462921</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>2009</v>
-      </c>
-      <c r="B54" s="118">
-        <v>10.165244947225702</v>
-      </c>
-      <c r="C54" s="118">
-        <v>6.2863259795750466</v>
-      </c>
-      <c r="D54" s="118">
-        <f t="shared" si="0"/>
-        <v>3.8789189676506552</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>2010</v>
-      </c>
-      <c r="B55" s="118">
-        <v>7.9031772465603956</v>
-      </c>
-      <c r="C55" s="118">
-        <v>7.8906511531249723</v>
-      </c>
-      <c r="D55" s="118">
-        <f t="shared" si="0"/>
-        <v>1.2526093435423213E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>2011</v>
-      </c>
-      <c r="B56" s="118">
-        <v>5.9724652465194126</v>
-      </c>
-      <c r="C56" s="118">
-        <v>12.718112550648296</v>
-      </c>
-      <c r="D56" s="118">
-        <f t="shared" si="0"/>
-        <v>-6.7456473041288838</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>2012</v>
-      </c>
-      <c r="B57" s="118">
-        <v>6.2284692328922961</v>
-      </c>
-      <c r="C57" s="118">
-        <v>12.861025863992964</v>
-      </c>
-      <c r="D57" s="118">
-        <f t="shared" si="0"/>
-        <v>-6.6325566311006678</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>2013</v>
-      </c>
-      <c r="B58" s="118">
-        <v>4.6821079205640839</v>
-      </c>
-      <c r="C58" s="118">
-        <v>16.148974500144099</v>
-      </c>
-      <c r="D58" s="118">
-        <f t="shared" si="0"/>
-        <v>-11.466866579580016</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>2014</v>
-      </c>
-      <c r="B59" s="118">
-        <v>4.6779899643949845</v>
-      </c>
-      <c r="C59" s="118">
-        <v>16.556487881616025</v>
-      </c>
-      <c r="D59" s="118">
-        <f t="shared" si="0"/>
-        <v>-11.87849791722104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>2015</v>
-      </c>
-      <c r="B60" s="118">
-        <v>2.5385946934540287</v>
-      </c>
-      <c r="C60" s="118">
-        <v>10.936681232124624</v>
-      </c>
-      <c r="D60" s="118">
-        <f t="shared" si="0"/>
-        <v>-8.3980865386705954</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>2016</v>
-      </c>
-      <c r="B61" s="118">
-        <v>2.4962679744755918</v>
-      </c>
-      <c r="C61" s="118">
-        <v>8.4096933289994933</v>
-      </c>
-      <c r="D61" s="118">
-        <f t="shared" si="0"/>
-        <v>-5.9134253545239019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>2017</v>
-      </c>
-      <c r="B62" s="118">
-        <v>2.7850009131124445</v>
-      </c>
-      <c r="C62" s="118">
-        <v>8.1669179396522402</v>
-      </c>
-      <c r="D62" s="118">
-        <f t="shared" si="0"/>
-        <v>-5.3819170265397958</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>2018</v>
-      </c>
-      <c r="B63" s="118">
-        <v>4.1193746344747844</v>
-      </c>
-      <c r="C63" s="118">
-        <v>9.5924521353418548</v>
-      </c>
-      <c r="D63" s="118">
-        <f t="shared" si="0"/>
-        <v>-5.4730775008670705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>2019</v>
-      </c>
-      <c r="B64" s="118">
-        <v>3.5977880810021436</v>
-      </c>
-      <c r="C64" s="118">
-        <v>8.5363177510911026</v>
-      </c>
-      <c r="D64" s="118">
-        <f t="shared" si="0"/>
-        <v>-4.9385296700889594</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>2020</v>
-      </c>
-      <c r="B65" s="118">
-        <v>2.6789883292962213</v>
-      </c>
-      <c r="C65" s="118">
-        <v>6.0580609244719339</v>
-      </c>
-      <c r="D65" s="118">
-        <f t="shared" si="0"/>
-        <v>-3.3790725951757126</v>
-      </c>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="118"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="118"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="118"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="118"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="118"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="118"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="118"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="118"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="118"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="118"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="118"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="118"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="118"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="118"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
+      <c r="I63" s="118"/>
+      <c r="J63" s="118"/>
+      <c r="K63" s="118"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="I64" s="118"/>
+      <c r="J64" s="118"/>
+      <c r="K64" s="118"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="I65" s="118"/>
+      <c r="J65" s="118"/>
+      <c r="K65" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18838,7 +17396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -20979,8 +19539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E618942-8025-504E-8E18-7FAFB6A2CB93}">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21050,61 +19610,61 @@
       <c r="AT1" s="5"/>
     </row>
     <row r="2" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="132" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="133"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="124" t="s">
+      <c r="L2" s="134"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="134"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="127" t="s">
+      <c r="U2" s="135"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="129" t="s">
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="130"/>
+      <c r="AM2" s="137"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="126"/>
+      <c r="AP2" s="126"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="126"/>
+      <c r="AS2" s="126"/>
+      <c r="AT2" s="133"/>
     </row>
     <row r="3" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">
@@ -25202,52 +23762,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB4FCE2-1943-48D5-8E6C-D51178D8E8D6}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="117"/>
-    <col min="2" max="11" width="14.59765625" customWidth="1"/>
+    <col min="2" max="9" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="122" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C1" s="123" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D1" s="123" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E1" s="123" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F1" s="123" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G1" s="123" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H1" s="123" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I1" s="123" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="123" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="119"/>
       <c r="M1" s="119"/>
       <c r="N1" s="119"/>
@@ -25255,10 +23811,8 @@
       <c r="P1" s="119"/>
       <c r="Q1" s="119"/>
       <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="122">
         <f>DATA!A4</f>
         <v>1995</v>
@@ -25291,17 +23845,10 @@
         <v>15979453701.6387</v>
       </c>
       <c r="I2" s="121">
-        <f>'NX ENERGY'!B40</f>
-        <v>10.339850045409996</v>
-      </c>
-      <c r="J2" s="121">
-        <f>'NX ENERGY'!C40</f>
-        <v>4.1945916522307334</v>
-      </c>
-      <c r="K2" s="121">
-        <f>'NX ENERGY'!D40</f>
-        <v>6.1452583931792626</v>
-      </c>
+        <v>-516.6</v>
+      </c>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
       <c r="L2" s="120"/>
       <c r="M2" s="120"/>
       <c r="N2" s="120"/>
@@ -25309,10 +23856,8 @@
       <c r="P2" s="120"/>
       <c r="Q2" s="120"/>
       <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="122">
         <f>DATA!A5</f>
         <v>1996</v>
@@ -25345,17 +23890,10 @@
         <v>19719017351.062401</v>
       </c>
       <c r="I3" s="121">
-        <f>'NX ENERGY'!B41</f>
-        <v>12.969009861261101</v>
-      </c>
-      <c r="J3" s="121">
-        <f>'NX ENERGY'!C41</f>
-        <v>3.6361851209611316</v>
-      </c>
-      <c r="K3" s="121">
-        <f>'NX ENERGY'!D41</f>
-        <v>9.3328247402999693</v>
-      </c>
+        <v>-645.70000000000005</v>
+      </c>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
       <c r="L3" s="120"/>
       <c r="M3" s="120"/>
       <c r="N3" s="120"/>
@@ -25363,10 +23901,8 @@
       <c r="P3" s="120"/>
       <c r="Q3" s="120"/>
       <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="122">
         <f>DATA!A6</f>
         <v>1997</v>
@@ -25399,17 +23935,10 @@
         <v>22424600096.7817</v>
       </c>
       <c r="I4" s="121">
-        <f>'NX ENERGY'!B42</f>
-        <v>11.698574402235792</v>
-      </c>
-      <c r="J4" s="121">
-        <f>'NX ENERGY'!C42</f>
-        <v>2.9585515941514173</v>
-      </c>
-      <c r="K4" s="121">
-        <f>'NX ENERGY'!D42</f>
-        <v>8.7400228080843743</v>
-      </c>
+        <v>-737.7</v>
+      </c>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="120"/>
       <c r="M4" s="120"/>
       <c r="N4" s="120"/>
@@ -25417,10 +23946,8 @@
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
       <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="122">
         <f>DATA!A7</f>
         <v>1998</v>
@@ -25453,17 +23980,10 @@
         <v>24855741222.254101</v>
       </c>
       <c r="I5" s="121">
-        <f>'NX ENERGY'!B43</f>
-        <v>8.6117644784647425</v>
-      </c>
-      <c r="J5" s="121">
-        <f>'NX ENERGY'!C43</f>
-        <v>2.5443646224009639</v>
-      </c>
-      <c r="K5" s="121">
-        <f>'NX ENERGY'!D43</f>
-        <v>6.0673998560637781</v>
-      </c>
+        <v>-757.9</v>
+      </c>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
       <c r="L5" s="120"/>
       <c r="M5" s="120"/>
       <c r="N5" s="120"/>
@@ -25471,10 +23991,8 @@
       <c r="P5" s="120"/>
       <c r="Q5" s="120"/>
       <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="122">
         <f>DATA!A8</f>
         <v>1999</v>
@@ -25507,17 +24025,10 @@
         <v>26350163486.372299</v>
       </c>
       <c r="I6" s="121">
-        <f>'NX ENERGY'!B44</f>
-        <v>12.116823827839935</v>
-      </c>
-      <c r="J6" s="121">
-        <f>'NX ENERGY'!C44</f>
-        <v>2.6496558528026153</v>
-      </c>
-      <c r="K6" s="121">
-        <f>'NX ENERGY'!D44</f>
-        <v>9.4671679750373201</v>
-      </c>
+        <v>-780.9</v>
+      </c>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="120"/>
       <c r="M6" s="120"/>
       <c r="N6" s="120"/>
@@ -25525,10 +24036,8 @@
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
       <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="122">
         <f>DATA!A9</f>
         <v>2000</v>
@@ -25561,17 +24070,10 @@
         <v>25152117244.413399</v>
       </c>
       <c r="I7" s="121">
-        <f>'NX ENERGY'!B45</f>
-        <v>17.624183060522526</v>
-      </c>
-      <c r="J7" s="121">
-        <f>'NX ENERGY'!C45</f>
-        <v>3.6694177277653459</v>
-      </c>
-      <c r="K7" s="121">
-        <f>'NX ENERGY'!D45</f>
-        <v>13.95476533275718</v>
-      </c>
+        <v>-866.5</v>
+      </c>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="120"/>
       <c r="M7" s="120"/>
       <c r="N7" s="120"/>
@@ -25579,10 +24081,8 @@
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
       <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="122">
         <f>DATA!A10</f>
         <v>2001</v>
@@ -25615,17 +24115,10 @@
         <v>14555552759.610201</v>
       </c>
       <c r="I8" s="121">
-        <f>'NX ENERGY'!B46</f>
-        <v>17.027214336681499</v>
-      </c>
-      <c r="J8" s="121">
-        <f>'NX ENERGY'!C46</f>
-        <v>3.9255889260124346</v>
-      </c>
-      <c r="K8" s="121">
-        <f>'NX ENERGY'!D46</f>
-        <v>13.101625410669065</v>
-      </c>
+        <v>-1063.5999999999999</v>
+      </c>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
       <c r="L8" s="120"/>
       <c r="M8" s="120"/>
       <c r="N8" s="120"/>
@@ -25633,10 +24126,8 @@
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
       <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="122">
         <f>DATA!A11</f>
         <v>2002</v>
@@ -25669,17 +24160,10 @@
         <v>10492424818.737499</v>
       </c>
       <c r="I9" s="121">
-        <f>'NX ENERGY'!B47</f>
-        <v>17.006237905599239</v>
-      </c>
-      <c r="J9" s="121">
-        <f>'NX ENERGY'!C47</f>
-        <v>4.7396529479909217</v>
-      </c>
-      <c r="K9" s="121">
-        <f>'NX ENERGY'!D47</f>
-        <v>12.266584957608316</v>
-      </c>
+        <v>-1054.7</v>
+      </c>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
       <c r="L9" s="120"/>
       <c r="M9" s="120"/>
       <c r="N9" s="120"/>
@@ -25687,10 +24171,8 @@
       <c r="P9" s="120"/>
       <c r="Q9" s="120"/>
       <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="122">
         <f>DATA!A12</f>
         <v>2003</v>
@@ -25723,17 +24205,10 @@
         <v>14157284136.3645</v>
       </c>
       <c r="I10" s="121">
-        <f>'NX ENERGY'!B48</f>
-        <v>17.083063385541255</v>
-      </c>
-      <c r="J10" s="121">
-        <f>'NX ENERGY'!C48</f>
-        <v>3.4516614017382716</v>
-      </c>
-      <c r="K10" s="121">
-        <f>'NX ENERGY'!D48</f>
-        <v>13.631401983802984</v>
-      </c>
+        <v>-1030.4000000000001</v>
+      </c>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
       <c r="L10" s="120"/>
       <c r="M10" s="120"/>
       <c r="N10" s="120"/>
@@ -25741,10 +24216,8 @@
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
       <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="122">
         <f>DATA!A13</f>
         <v>2004</v>
@@ -25777,17 +24250,10 @@
         <v>19659591803.978802</v>
       </c>
       <c r="I11" s="121">
-        <f>'NX ENERGY'!B49</f>
-        <v>16.000289852306661</v>
-      </c>
-      <c r="J11" s="121">
-        <f>'NX ENERGY'!C49</f>
-        <v>4.1056698881863065</v>
-      </c>
-      <c r="K11" s="121">
-        <f>'NX ENERGY'!D49</f>
-        <v>11.894619964120356</v>
-      </c>
+        <v>-793.1</v>
+      </c>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
       <c r="L11" s="120"/>
       <c r="M11" s="120"/>
       <c r="N11" s="120"/>
@@ -25795,10 +24261,8 @@
       <c r="P11" s="120"/>
       <c r="Q11" s="120"/>
       <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="122">
         <f>DATA!A14</f>
         <v>2005</v>
@@ -25831,17 +24295,10 @@
         <v>28081718501.557899</v>
       </c>
       <c r="I12" s="121">
-        <f>'NX ENERGY'!B50</f>
-        <v>16.396145563740262</v>
-      </c>
-      <c r="J12" s="121">
-        <f>'NX ENERGY'!C50</f>
-        <v>4.9661929898264585</v>
-      </c>
-      <c r="K12" s="121">
-        <f>'NX ENERGY'!D50</f>
-        <v>11.429952573913804</v>
-      </c>
+        <v>-675.8</v>
+      </c>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
       <c r="L12" s="120"/>
       <c r="M12" s="120"/>
       <c r="N12" s="120"/>
@@ -25849,10 +24306,8 @@
       <c r="P12" s="120"/>
       <c r="Q12" s="120"/>
       <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="122">
         <f>DATA!A15</f>
         <v>2006</v>
@@ -25885,17 +24340,10 @@
         <v>32022297112.980598</v>
       </c>
       <c r="I13" s="121">
-        <f>'NX ENERGY'!B51</f>
-        <v>15.2633165831813</v>
-      </c>
-      <c r="J13" s="121">
-        <f>'NX ENERGY'!C51</f>
-        <v>4.6996420744333873</v>
-      </c>
-      <c r="K13" s="121">
-        <f>'NX ENERGY'!D51</f>
-        <v>10.563674508747912</v>
-      </c>
+        <v>-553.9</v>
+      </c>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
       <c r="N13" s="120"/>
@@ -25903,10 +24351,8 @@
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
       <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="122">
         <f>DATA!A16</f>
         <v>2007</v>
@@ -25939,17 +24385,10 @@
         <v>46149456855.780197</v>
       </c>
       <c r="I14" s="121">
-        <f>'NX ENERGY'!B52</f>
-        <v>10.92630873147332</v>
-      </c>
-      <c r="J14" s="121">
-        <f>'NX ENERGY'!C52</f>
-        <v>6.0202755609707506</v>
-      </c>
-      <c r="K14" s="121">
-        <f>'NX ENERGY'!D52</f>
-        <v>4.9060331705025693</v>
-      </c>
+        <v>-270.89999999999998</v>
+      </c>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="120"/>
       <c r="M14" s="120"/>
       <c r="N14" s="120"/>
@@ -25957,10 +24396,8 @@
       <c r="P14" s="120"/>
       <c r="Q14" s="120"/>
       <c r="R14" s="120"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="120"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="122">
         <f>DATA!A17</f>
         <v>2008</v>
@@ -25993,17 +24430,10 @@
         <v>46385380206.980103</v>
       </c>
       <c r="I15" s="121">
-        <f>'NX ENERGY'!B53</f>
-        <v>9.3709820098464007</v>
-      </c>
-      <c r="J15" s="121">
-        <f>'NX ENERGY'!C53</f>
-        <v>7.1958921890001086</v>
-      </c>
-      <c r="K15" s="121">
-        <f>'NX ENERGY'!D53</f>
-        <v>2.1750898208462921</v>
-      </c>
+        <v>-200.2</v>
+      </c>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
       <c r="L15" s="120"/>
       <c r="M15" s="120"/>
       <c r="N15" s="120"/>
@@ -26011,10 +24441,8 @@
       <c r="P15" s="120"/>
       <c r="Q15" s="120"/>
       <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="122">
         <f>DATA!A18</f>
         <v>2009</v>
@@ -26047,17 +24475,10 @@
         <v>48006988635.325302</v>
       </c>
       <c r="I16" s="121">
-        <f>'NX ENERGY'!B54</f>
-        <v>10.165244947225702</v>
-      </c>
-      <c r="J16" s="121">
-        <f>'NX ENERGY'!C54</f>
-        <v>6.2863259795750466</v>
-      </c>
-      <c r="K16" s="121">
-        <f>'NX ENERGY'!D54</f>
-        <v>3.8789189676506552</v>
-      </c>
+        <v>-225.6</v>
+      </c>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
       <c r="L16" s="120"/>
       <c r="M16" s="120"/>
       <c r="N16" s="120"/>
@@ -26065,10 +24486,8 @@
       <c r="P16" s="120"/>
       <c r="Q16" s="120"/>
       <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="122">
         <f>DATA!A19</f>
         <v>2010</v>
@@ -26101,17 +24520,10 @@
         <v>52207549724.092796</v>
       </c>
       <c r="I17" s="121">
-        <f>'NX ENERGY'!B55</f>
-        <v>7.9031772465603956</v>
-      </c>
-      <c r="J17" s="121">
-        <f>'NX ENERGY'!C55</f>
-        <v>7.8906511531249723</v>
-      </c>
-      <c r="K17" s="121">
-        <f>'NX ENERGY'!D55</f>
-        <v>1.2526093435423213E-2</v>
-      </c>
+        <v>-75.8</v>
+      </c>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
       <c r="L17" s="120"/>
       <c r="M17" s="120"/>
       <c r="N17" s="120"/>
@@ -26119,10 +24531,8 @@
       <c r="P17" s="120"/>
       <c r="Q17" s="120"/>
       <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="122">
         <f>DATA!A20</f>
         <v>2011</v>
@@ -26155,17 +24565,10 @@
         <v>46265800525.880699</v>
       </c>
       <c r="I18" s="121">
-        <f>'NX ENERGY'!B56</f>
-        <v>5.9724652465194126</v>
-      </c>
-      <c r="J18" s="121">
-        <f>'NX ENERGY'!C56</f>
-        <v>12.718112550648296</v>
-      </c>
-      <c r="K18" s="121">
-        <f>'NX ENERGY'!D56</f>
-        <v>-6.7456473041288838</v>
-      </c>
+        <v>235.7</v>
+      </c>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
       <c r="L18" s="120"/>
       <c r="M18" s="120"/>
       <c r="N18" s="120"/>
@@ -26173,10 +24576,8 @@
       <c r="P18" s="120"/>
       <c r="Q18" s="120"/>
       <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="122">
         <f>DATA!A21</f>
         <v>2012</v>
@@ -26209,17 +24610,10 @@
         <v>43223270863.843002</v>
       </c>
       <c r="I19" s="121">
-        <f>'NX ENERGY'!B57</f>
-        <v>6.2284692328922961</v>
-      </c>
-      <c r="J19" s="121">
-        <f>'NX ENERGY'!C57</f>
-        <v>12.861025863992964</v>
-      </c>
-      <c r="K19" s="121">
-        <f>'NX ENERGY'!D57</f>
-        <v>-6.6325566311006678</v>
-      </c>
+        <v>271.7</v>
+      </c>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
       <c r="L19" s="120"/>
       <c r="M19" s="120"/>
       <c r="N19" s="120"/>
@@ -26227,10 +24621,8 @@
       <c r="P19" s="120"/>
       <c r="Q19" s="120"/>
       <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="122">
         <f>DATA!A22</f>
         <v>2013</v>
@@ -26263,17 +24655,10 @@
         <v>30533919650.6264</v>
       </c>
       <c r="I20" s="121">
-        <f>'NX ENERGY'!B58</f>
-        <v>4.6821079205640839</v>
-      </c>
-      <c r="J20" s="121">
-        <f>'NX ENERGY'!C58</f>
-        <v>16.148974500144099</v>
-      </c>
-      <c r="K20" s="121">
-        <f>'NX ENERGY'!D58</f>
-        <v>-11.466866579580016</v>
-      </c>
+        <v>481.1</v>
+      </c>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
       <c r="L20" s="120"/>
       <c r="M20" s="120"/>
       <c r="N20" s="120"/>
@@ -26281,10 +24666,8 @@
       <c r="P20" s="120"/>
       <c r="Q20" s="120"/>
       <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="122">
         <f>DATA!A23</f>
         <v>2014</v>
@@ -26317,17 +24700,10 @@
         <v>31410813269.523899</v>
       </c>
       <c r="I21" s="121">
-        <f>'NX ENERGY'!B59</f>
-        <v>4.6779899643949845</v>
-      </c>
-      <c r="J21" s="121">
-        <f>'NX ENERGY'!C59</f>
-        <v>16.556487881616025</v>
-      </c>
-      <c r="K21" s="121">
-        <f>'NX ENERGY'!D59</f>
-        <v>-11.87849791722104</v>
-      </c>
+        <v>484.4</v>
+      </c>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
       <c r="L21" s="120"/>
       <c r="M21" s="120"/>
       <c r="N21" s="120"/>
@@ -26335,10 +24711,8 @@
       <c r="P21" s="120"/>
       <c r="Q21" s="120"/>
       <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="122">
         <f>DATA!A24</f>
         <v>2015</v>
@@ -26371,17 +24745,10 @@
         <v>25520565580.489399</v>
       </c>
       <c r="I22" s="121">
-        <f>'NX ENERGY'!B60</f>
-        <v>2.5385946934540287</v>
-      </c>
-      <c r="J22" s="121">
-        <f>'NX ENERGY'!C60</f>
-        <v>10.936681232124624</v>
-      </c>
-      <c r="K22" s="121">
-        <f>'NX ENERGY'!D60</f>
-        <v>-8.3980865386705954</v>
-      </c>
+        <v>473.5</v>
+      </c>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
       <c r="L22" s="120"/>
       <c r="M22" s="120"/>
       <c r="N22" s="120"/>
@@ -26389,10 +24756,8 @@
       <c r="P22" s="120"/>
       <c r="Q22" s="120"/>
       <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="122">
         <f>DATA!A25</f>
         <v>2016</v>
@@ -26425,17 +24790,10 @@
         <v>38414518491.613197</v>
       </c>
       <c r="I23" s="121">
-        <f>'NX ENERGY'!B61</f>
-        <v>2.4962679744755918</v>
-      </c>
-      <c r="J23" s="121">
-        <f>'NX ENERGY'!C61</f>
-        <v>8.4096933289994933</v>
-      </c>
-      <c r="K23" s="121">
-        <f>'NX ENERGY'!D61</f>
-        <v>-5.9134253545239019</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
       <c r="L23" s="120"/>
       <c r="M23" s="120"/>
       <c r="N23" s="120"/>
@@ -26443,10 +24801,8 @@
       <c r="P23" s="120"/>
       <c r="Q23" s="120"/>
       <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="122">
         <f>DATA!A26</f>
         <v>2017</v>
@@ -26479,17 +24835,10 @@
         <v>55314409205.218903</v>
       </c>
       <c r="I24" s="121">
-        <f>'NX ENERGY'!B62</f>
-        <v>2.7850009131124445</v>
-      </c>
-      <c r="J24" s="121">
-        <f>'NX ENERGY'!C62</f>
-        <v>8.1669179396522402</v>
-      </c>
-      <c r="K24" s="121">
-        <f>'NX ENERGY'!D62</f>
-        <v>-5.3819170265397958</v>
-      </c>
+        <v>459.7</v>
+      </c>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
       <c r="L24" s="120"/>
       <c r="M24" s="120"/>
       <c r="N24" s="120"/>
@@ -26497,10 +24846,8 @@
       <c r="P24" s="120"/>
       <c r="Q24" s="120"/>
       <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="122">
         <f>DATA!A27</f>
         <v>2018</v>
@@ -26533,17 +24880,10 @@
         <v>66221501691.441803</v>
       </c>
       <c r="I25" s="121">
-        <f>'NX ENERGY'!B63</f>
-        <v>4.1193746344747844</v>
-      </c>
-      <c r="J25" s="121">
-        <f>'NX ENERGY'!C63</f>
-        <v>9.5924521353418548</v>
-      </c>
-      <c r="K25" s="121">
-        <f>'NX ENERGY'!D63</f>
-        <v>-5.4730775008670705</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
       <c r="L25" s="120"/>
       <c r="M25" s="120"/>
       <c r="N25" s="120"/>
@@ -26551,10 +24891,8 @@
       <c r="P25" s="120"/>
       <c r="Q25" s="120"/>
       <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="122">
         <f>DATA!A28</f>
         <v>2019</v>
@@ -26587,17 +24925,10 @@
         <v>44880566052.3703</v>
       </c>
       <c r="I26" s="121">
-        <f>'NX ENERGY'!B64</f>
-        <v>3.5977880810021436</v>
-      </c>
-      <c r="J26" s="121">
-        <f>'NX ENERGY'!C64</f>
-        <v>8.5363177510911026</v>
-      </c>
-      <c r="K26" s="121">
-        <f>'NX ENERGY'!D64</f>
-        <v>-4.9385296700889594</v>
-      </c>
+        <v>87.9</v>
+      </c>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
       <c r="L26" s="120"/>
       <c r="M26" s="120"/>
       <c r="N26" s="120"/>
@@ -26605,8 +24936,6 @@
       <c r="P26" s="120"/>
       <c r="Q26" s="120"/>
       <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26615,6 +24944,911 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A9A660-B056-4BAD-AE6A-63A65CB88FA3}">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="124"/>
+    <col min="2" max="9" width="14.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="123" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="122">
+        <f>DATA!A11</f>
+        <v>2002</v>
+      </c>
+      <c r="B2" s="120">
+        <f>Complete!U11</f>
+        <v>110287.8515625</v>
+      </c>
+      <c r="C2" s="120">
+        <f>Complete!T11</f>
+        <v>8391.078879313789</v>
+      </c>
+      <c r="D2" s="120">
+        <f>Complete!V11</f>
+        <v>10485.908468303285</v>
+      </c>
+      <c r="E2" s="120">
+        <f>DATA!W11</f>
+        <v>15</v>
+      </c>
+      <c r="F2" s="120">
+        <f>Complete!Z11</f>
+        <v>342.73567836857364</v>
+      </c>
+      <c r="G2" s="121">
+        <f>Complete!AA11</f>
+        <v>12.4840185721018</v>
+      </c>
+      <c r="H2" s="120">
+        <f>Complete!AB11</f>
+        <v>1004402765.69838</v>
+      </c>
+      <c r="I2" s="121"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="122">
+        <f>DATA!A12</f>
+        <v>2003</v>
+      </c>
+      <c r="B3" s="120">
+        <f>Complete!U12</f>
+        <v>113290.859375</v>
+      </c>
+      <c r="C3" s="120">
+        <f>Complete!T12</f>
+        <v>8473.7163733487087</v>
+      </c>
+      <c r="D3" s="120">
+        <f>Complete!V12</f>
+        <v>10942.609654980417</v>
+      </c>
+      <c r="E3" s="120">
+        <f>DATA!W12</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="120">
+        <f>Complete!Z12</f>
+        <v>484.69291697727022</v>
+      </c>
+      <c r="G3" s="121">
+        <f>Complete!AA12</f>
+        <v>7.9294100052341303</v>
+      </c>
+      <c r="H3" s="120">
+        <f>Complete!AB12</f>
+        <v>1165340428.48352</v>
+      </c>
+      <c r="I3" s="121"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="122">
+        <f>DATA!A13</f>
+        <v>2004</v>
+      </c>
+      <c r="B4" s="120">
+        <f>Complete!U13</f>
+        <v>122593.1953125</v>
+      </c>
+      <c r="C4" s="120">
+        <f>Complete!T13</f>
+        <v>9016.600240630085</v>
+      </c>
+      <c r="D4" s="120">
+        <f>Complete!V13</f>
+        <v>11354.863149384197</v>
+      </c>
+      <c r="E4" s="120">
+        <f>DATA!W13</f>
+        <v>15</v>
+      </c>
+      <c r="F4" s="120">
+        <f>Complete!Z13</f>
+        <v>2060.7488448994682</v>
+      </c>
+      <c r="G4" s="121">
+        <f>Complete!AA13</f>
+        <v>2.7421813294164399</v>
+      </c>
+      <c r="H4" s="120">
+        <f>Complete!AB13</f>
+        <v>1439913954.6356599</v>
+      </c>
+      <c r="I4" s="121"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="122">
+        <f>DATA!A14</f>
+        <v>2005</v>
+      </c>
+      <c r="B5" s="120">
+        <f>Complete!U14</f>
+        <v>129079.984375</v>
+      </c>
+      <c r="C5" s="120">
+        <f>Complete!T14</f>
+        <v>9336.1357445225603</v>
+      </c>
+      <c r="D5" s="120">
+        <f>Complete!V14</f>
+        <v>12042.493122238693</v>
+      </c>
+      <c r="E5" s="120">
+        <f>DATA!W14</f>
+        <v>14</v>
+      </c>
+      <c r="F5" s="120">
+        <f>Complete!Z14</f>
+        <v>4285.0719993017919</v>
+      </c>
+      <c r="G5" s="121">
+        <f>Complete!AA14</f>
+        <v>2.4077697831568998</v>
+      </c>
+      <c r="H5" s="120">
+        <f>Complete!AB14</f>
+        <v>2147944603.1967402</v>
+      </c>
+      <c r="I5" s="121"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="122">
+        <f>DATA!A15</f>
+        <v>2006</v>
+      </c>
+      <c r="B6" s="120">
+        <f>Complete!U15</f>
+        <v>134764</v>
+      </c>
+      <c r="C6" s="120">
+        <f>Complete!T15</f>
+        <v>9585.3417190966557</v>
+      </c>
+      <c r="D6" s="120">
+        <f>Complete!V15</f>
+        <v>12602.422101301347</v>
+      </c>
+      <c r="E6" s="120">
+        <f>DATA!W15</f>
+        <v>14</v>
+      </c>
+      <c r="F6" s="120">
+        <f>Complete!Z15</f>
+        <v>5920.7714923863387</v>
+      </c>
+      <c r="G6" s="121">
+        <f>Complete!AA15</f>
+        <v>3.2987484625821799</v>
+      </c>
+      <c r="H6" s="120">
+        <f>Complete!AB15</f>
+        <v>2026480313.6912899</v>
+      </c>
+      <c r="I6" s="121"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" s="122">
+        <f>DATA!A16</f>
+        <v>2007</v>
+      </c>
+      <c r="B7" s="120">
+        <f>Complete!U16</f>
+        <v>137715.46875</v>
+      </c>
+      <c r="C7" s="120">
+        <f>Complete!T16</f>
+        <v>9632.7716351566323</v>
+      </c>
+      <c r="D7" s="120">
+        <f>Complete!V16</f>
+        <v>12831.09431194259</v>
+      </c>
+      <c r="E7" s="120">
+        <f>DATA!W16</f>
+        <v>16</v>
+      </c>
+      <c r="F7" s="120">
+        <f>Complete!Z16</f>
+        <v>6550.7918129372119</v>
+      </c>
+      <c r="G7" s="121">
+        <f>Complete!AA16</f>
+        <v>2.2761847800211998</v>
+      </c>
+      <c r="H7" s="120">
+        <f>Complete!AB16</f>
+        <v>3520672992.4577899</v>
+      </c>
+      <c r="I7" s="121"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" s="122">
+        <f>DATA!A17</f>
+        <v>2008</v>
+      </c>
+      <c r="B8" s="120">
+        <f>Complete!U17</f>
+        <v>146470.21875</v>
+      </c>
+      <c r="C8" s="120">
+        <f>Complete!T17</f>
+        <v>10076.558113075642</v>
+      </c>
+      <c r="D8" s="120">
+        <f>Complete!V17</f>
+        <v>13825.822925252809</v>
+      </c>
+      <c r="E8" s="120">
+        <f>DATA!W17</f>
+        <v>21</v>
+      </c>
+      <c r="F8" s="120">
+        <f>Complete!Z17</f>
+        <v>6311.6880673816304</v>
+      </c>
+      <c r="G8" s="121">
+        <f>Complete!AA17</f>
+        <v>8.4000959398746193</v>
+      </c>
+      <c r="H8" s="120">
+        <f>Complete!AB17</f>
+        <v>4472854631.2803097</v>
+      </c>
+      <c r="I8" s="121"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" s="122">
+        <f>DATA!A18</f>
+        <v>2009</v>
+      </c>
+      <c r="B9" s="120">
+        <f>Complete!U18</f>
+        <v>147299.96875</v>
+      </c>
+      <c r="C9" s="120">
+        <f>Complete!T18</f>
+        <v>9969.9297075811555</v>
+      </c>
+      <c r="D9" s="120">
+        <f>Complete!V18</f>
+        <v>14070.382667470027</v>
+      </c>
+      <c r="E9" s="120">
+        <f>DATA!W18</f>
+        <v>23</v>
+      </c>
+      <c r="F9" s="120">
+        <f>Complete!Z18</f>
+        <v>5069.8475311387083</v>
+      </c>
+      <c r="G9" s="121">
+        <f>Complete!AA18</f>
+        <v>5.1599682918104604</v>
+      </c>
+      <c r="H9" s="120">
+        <f>Complete!AB18</f>
+        <v>3792122231.6349001</v>
+      </c>
+      <c r="I9" s="121"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="122">
+        <f>DATA!A19</f>
+        <v>2010</v>
+      </c>
+      <c r="B10" s="120">
+        <f>Complete!U19</f>
+        <v>152492.71875</v>
+      </c>
+      <c r="C10" s="120">
+        <f>Complete!T19</f>
+        <v>10158.65233413343</v>
+      </c>
+      <c r="D10" s="120">
+        <f>Complete!V19</f>
+        <v>14556.455738105498</v>
+      </c>
+      <c r="E10" s="120">
+        <f>DATA!W19</f>
+        <v>23</v>
+      </c>
+      <c r="F10" s="120">
+        <f>Complete!Z19</f>
+        <v>5953.2713421670305</v>
+      </c>
+      <c r="G10" s="121">
+        <f>Complete!AA19</f>
+        <v>3.5543773456784602</v>
+      </c>
+      <c r="H10" s="120">
+        <f>Complete!AB19</f>
+        <v>2622493356.3825202</v>
+      </c>
+      <c r="I10" s="121"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="122">
+        <f>DATA!A20</f>
+        <v>2011</v>
+      </c>
+      <c r="B11" s="120">
+        <f>Complete!U20</f>
+        <v>164491.0625</v>
+      </c>
+      <c r="C11" s="120">
+        <f>Complete!T20</f>
+        <v>10790.626752342119</v>
+      </c>
+      <c r="D11" s="120">
+        <f>Complete!V20</f>
+        <v>15682.954815878367</v>
+      </c>
+      <c r="E11" s="120">
+        <f>DATA!W20</f>
+        <v>23</v>
+      </c>
+      <c r="F11" s="120">
+        <f>Complete!Z20</f>
+        <v>8480.3514055977612</v>
+      </c>
+      <c r="G11" s="121">
+        <f>Complete!AA20</f>
+        <v>4.4745326579583597</v>
+      </c>
+      <c r="H11" s="120">
+        <f>Complete!AB20</f>
+        <v>2957999383.6445098</v>
+      </c>
+      <c r="I11" s="121"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="122">
+        <f>DATA!A21</f>
+        <v>2012</v>
+      </c>
+      <c r="B12" s="120">
+        <f>Complete!U21</f>
+        <v>173771.59375</v>
+      </c>
+      <c r="C12" s="120">
+        <f>Complete!T21</f>
+        <v>11229.834531259685</v>
+      </c>
+      <c r="D12" s="120">
+        <f>Complete!V21</f>
+        <v>16524.836238369036</v>
+      </c>
+      <c r="E12" s="120">
+        <f>DATA!W21</f>
+        <v>24</v>
+      </c>
+      <c r="F12" s="120">
+        <f>Complete!Z21</f>
+        <v>13902.713107941032</v>
+      </c>
+      <c r="G12" s="121">
+        <f>Complete!AA21</f>
+        <v>5.1017218095867003</v>
+      </c>
+      <c r="H12" s="120">
+        <f>Complete!AB21</f>
+        <v>2486036143.6835699</v>
+      </c>
+      <c r="I12" s="121"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="122">
+        <f>DATA!A22</f>
+        <v>2013</v>
+      </c>
+      <c r="B13" s="120">
+        <f>Complete!U22</f>
+        <v>182367.21875</v>
+      </c>
+      <c r="C13" s="120">
+        <f>Complete!T22</f>
+        <v>11610.219361177997</v>
+      </c>
+      <c r="D13" s="120">
+        <f>Complete!V22</f>
+        <v>16533.926414618789</v>
+      </c>
+      <c r="E13" s="120">
+        <f>DATA!W22</f>
+        <v>27</v>
+      </c>
+      <c r="F13" s="120">
+        <f>Complete!Z22</f>
+        <v>12960.179408601267</v>
+      </c>
+      <c r="G13" s="121">
+        <f>Complete!AA22</f>
+        <v>2.7217757771036499</v>
+      </c>
+      <c r="H13" s="120">
+        <f>Complete!AB22</f>
+        <v>4345840333.4675703</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" s="122">
+        <f>DATA!A23</f>
+        <v>2014</v>
+      </c>
+      <c r="B14" s="120">
+        <f>Complete!U23</f>
+        <v>189276.875</v>
+      </c>
+      <c r="C14" s="120">
+        <f>Complete!T23</f>
+        <v>11865.519902406244</v>
+      </c>
+      <c r="D14" s="120">
+        <f>Complete!V23</f>
+        <v>16822.864769726868</v>
+      </c>
+      <c r="E14" s="120">
+        <f>DATA!W23</f>
+        <v>26</v>
+      </c>
+      <c r="F14" s="120">
+        <f>Complete!Z23</f>
+        <v>11486.289779796971</v>
+      </c>
+      <c r="G14" s="121">
+        <f>Complete!AA23</f>
+        <v>3.5892201661666898</v>
+      </c>
+      <c r="H14" s="120">
+        <f>Complete!AB23</f>
+        <v>3941357097.57337</v>
+      </c>
+      <c r="I14" s="121"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" s="122">
+        <f>DATA!A24</f>
+        <v>2015</v>
+      </c>
+      <c r="B15" s="120">
+        <f>Complete!U24</f>
+        <v>189464.015625</v>
+      </c>
+      <c r="C15" s="120">
+        <f>Complete!T24</f>
+        <v>11686.638409340725</v>
+      </c>
+      <c r="D15" s="120">
+        <f>Complete!V24</f>
+        <v>16485.431012632962</v>
+      </c>
+      <c r="E15" s="120">
+        <f>DATA!W24</f>
+        <v>25</v>
+      </c>
+      <c r="F15" s="120">
+        <f>Complete!Z24</f>
+        <v>13641.269386217988</v>
+      </c>
+      <c r="G15" s="121">
+        <f>Complete!AA24</f>
+        <v>3.9666462325535399</v>
+      </c>
+      <c r="H15" s="120">
+        <f>Complete!AB24</f>
+        <v>2487276599.5640502</v>
+      </c>
+      <c r="I15" s="121"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" s="122">
+        <f>DATA!A25</f>
+        <v>2016</v>
+      </c>
+      <c r="B16" s="120">
+        <f>Complete!U25</f>
+        <v>187140.453125</v>
+      </c>
+      <c r="C16" s="120">
+        <f>Complete!T25</f>
+        <v>11347.955658367815</v>
+      </c>
+      <c r="D16" s="120">
+        <f>Complete!V25</f>
+        <v>16095.847030784349</v>
+      </c>
+      <c r="E16" s="120">
+        <f>DATA!W25</f>
+        <v>24</v>
+      </c>
+      <c r="F16" s="120">
+        <f>Complete!Z25</f>
+        <v>9741.6651674288369</v>
+      </c>
+      <c r="G16" s="121">
+        <f>Complete!AA25</f>
+        <v>1.72826463324535</v>
+      </c>
+      <c r="H16" s="120">
+        <f>Complete!AB25</f>
+        <v>4215553160.0567698</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" s="122">
+        <f>DATA!A26</f>
+        <v>2017</v>
+      </c>
+      <c r="B17" s="120">
+        <f>Complete!U26</f>
+        <v>191572.671875</v>
+      </c>
+      <c r="C17" s="120">
+        <f>Complete!T26</f>
+        <v>11413.080235509979</v>
+      </c>
+      <c r="D17" s="120">
+        <f>Complete!V26</f>
+        <v>16008.864762184885</v>
+      </c>
+      <c r="E17" s="120">
+        <f>DATA!W26</f>
+        <v>23</v>
+      </c>
+      <c r="F17" s="120">
+        <f>Complete!Z26</f>
+        <v>8915.0762627261138</v>
+      </c>
+      <c r="G17" s="121">
+        <f>Complete!AA26</f>
+        <v>0.41733558866680298</v>
+      </c>
+      <c r="H17" s="120">
+        <f>Complete!AB26</f>
+        <v>2169697856.6482</v>
+      </c>
+      <c r="I17" s="121"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" s="122">
+        <f>DATA!A27</f>
+        <v>2018</v>
+      </c>
+      <c r="B18" s="120">
+        <f>Complete!U27</f>
+        <v>194042.609375</v>
+      </c>
+      <c r="C18" s="120">
+        <f>Complete!T27</f>
+        <v>11357.910515279533</v>
+      </c>
+      <c r="D18" s="120">
+        <f>Complete!V27</f>
+        <v>15843.31815486911</v>
+      </c>
+      <c r="E18" s="120">
+        <f>DATA!W27</f>
+        <v>22</v>
+      </c>
+      <c r="F18" s="120">
+        <f>Complete!Z27</f>
+        <v>10049.318111074797</v>
+      </c>
+      <c r="G18" s="121">
+        <f>Complete!AA27</f>
+        <v>-0.224103246005465</v>
+      </c>
+      <c r="H18" s="120">
+        <f>Complete!AB27</f>
+        <v>2158694032.4143</v>
+      </c>
+      <c r="I18" s="121"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="122">
+        <f>DATA!A28</f>
+        <v>2019</v>
+      </c>
+      <c r="B19" s="120">
+        <f>Complete!U28</f>
+        <v>194146.828125</v>
+      </c>
+      <c r="C19" s="120">
+        <f>Complete!T28</f>
+        <v>11174.778703821912</v>
+      </c>
+      <c r="D19" s="120">
+        <f>Complete!V28</f>
+        <v>15701.851019403648</v>
+      </c>
+      <c r="E19" s="120">
+        <f>DATA!W28</f>
+        <v>28</v>
+      </c>
+      <c r="F19" s="120">
+        <f>Complete!Z28</f>
+        <v>9206.9116892289749</v>
+      </c>
+      <c r="G19" s="121">
+        <f>Complete!AA28</f>
+        <v>0.26601251546613602</v>
+      </c>
+      <c r="H19" s="120">
+        <f>Complete!AB28</f>
+        <v>2940235064.0846901</v>
+      </c>
+      <c r="I19" s="121"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="122">
+        <f>DATA!A29</f>
+        <v>2020</v>
+      </c>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120">
+        <f>DATA!W29</f>
+        <v>28</v>
+      </c>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121">
+        <f>Complete!AA29</f>
+        <v>-0.33887239256227403</v>
+      </c>
+      <c r="H20" s="120">
+        <f>Complete!AB29</f>
+        <v>6569460538.8840504</v>
+      </c>
+      <c r="I20" s="121"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" s="122">
+        <f>DATA!A30</f>
+        <v>2021</v>
+      </c>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A3072D-EF2B-1F44-BBE7-6CC4311F7EF6}">
   <dimension ref="A1:AI27"/>
   <sheetViews>
@@ -26633,49 +25867,49 @@
       <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
       <c r="H1" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="139" t="str">
+      <c r="I1" s="140" t="str">
         <f>Complete!AD3</f>
         <v>GDP</v>
       </c>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
       <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="139" t="s">
+      <c r="P1" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
       <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="139" t="s">
+      <c r="W1" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
-      <c r="AF1" s="139"/>
-      <c r="AG1" s="139"/>
-      <c r="AH1" s="139"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="140"/>
+      <c r="AH1" s="140"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1087,25 +1087,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="2" spans="1:88" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="128" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="129"/>
@@ -9140,7 +9140,7 @@
       <c r="G2" s="129"/>
       <c r="H2" s="129"/>
       <c r="I2" s="130"/>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="131" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="129"/>
@@ -9150,7 +9150,7 @@
       <c r="O2" s="129"/>
       <c r="P2" s="129"/>
       <c r="Q2" s="132"/>
-      <c r="R2" s="128" t="s">
+      <c r="R2" s="133" t="s">
         <v>4</v>
       </c>
       <c r="S2" s="129"/>
@@ -9160,7 +9160,7 @@
       <c r="W2" s="129"/>
       <c r="X2" s="129"/>
       <c r="Y2" s="130"/>
-      <c r="Z2" s="131" t="s">
+      <c r="Z2" s="134" t="s">
         <v>5</v>
       </c>
       <c r="AA2" s="129"/>
@@ -9170,7 +9170,7 @@
       <c r="AE2" s="129"/>
       <c r="AF2" s="129"/>
       <c r="AG2" s="132"/>
-      <c r="AH2" s="133" t="s">
+      <c r="AH2" s="135" t="s">
         <v>6</v>
       </c>
       <c r="AI2" s="129"/>
@@ -9179,8 +9179,8 @@
       <c r="AL2" s="129"/>
       <c r="AM2" s="129"/>
       <c r="AN2" s="129"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="135" t="s">
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="128" t="s">
         <v>2</v>
       </c>
       <c r="AQ2" s="129"/>
@@ -9190,7 +9190,7 @@
       <c r="AU2" s="129"/>
       <c r="AV2" s="129"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="136" t="s">
+      <c r="AX2" s="131" t="s">
         <v>3</v>
       </c>
       <c r="AY2" s="129"/>
@@ -9200,7 +9200,7 @@
       <c r="BC2" s="129"/>
       <c r="BD2" s="129"/>
       <c r="BE2" s="132"/>
-      <c r="BF2" s="128" t="s">
+      <c r="BF2" s="133" t="s">
         <v>4</v>
       </c>
       <c r="BG2" s="129"/>
@@ -9210,7 +9210,7 @@
       <c r="BK2" s="129"/>
       <c r="BL2" s="129"/>
       <c r="BM2" s="130"/>
-      <c r="BN2" s="131" t="s">
+      <c r="BN2" s="134" t="s">
         <v>5</v>
       </c>
       <c r="BO2" s="129"/>
@@ -9220,7 +9220,7 @@
       <c r="BS2" s="129"/>
       <c r="BT2" s="129"/>
       <c r="BU2" s="132"/>
-      <c r="BV2" s="133" t="s">
+      <c r="BV2" s="135" t="s">
         <v>6</v>
       </c>
       <c r="BW2" s="129"/>
@@ -9229,7 +9229,7 @@
       <c r="BZ2" s="129"/>
       <c r="CA2" s="129"/>
       <c r="CB2" s="129"/>
-      <c r="CC2" s="134"/>
+      <c r="CC2" s="136"/>
       <c r="CH2" s="7"/>
       <c r="CI2" s="7"/>
       <c r="CJ2" s="7"/>
@@ -16986,16 +16986,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="R2:Y2"/>
     <mergeCell ref="Z2:AG2"/>
     <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="BF2:BM2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -19656,7 +19656,7 @@
       <c r="H2" s="141"/>
       <c r="I2" s="141"/>
       <c r="J2" s="142"/>
-      <c r="K2" s="136" t="s">
+      <c r="K2" s="131" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="137"/>
@@ -19667,7 +19667,7 @@
       <c r="Q2" s="129"/>
       <c r="R2" s="129"/>
       <c r="S2" s="132"/>
-      <c r="T2" s="128" t="s">
+      <c r="T2" s="133" t="s">
         <v>4</v>
       </c>
       <c r="U2" s="138"/>
@@ -19678,7 +19678,7 @@
       <c r="Z2" s="129"/>
       <c r="AA2" s="129"/>
       <c r="AB2" s="130"/>
-      <c r="AC2" s="131" t="s">
+      <c r="AC2" s="134" t="s">
         <v>5</v>
       </c>
       <c r="AD2" s="139"/>
@@ -19689,7 +19689,7 @@
       <c r="AI2" s="129"/>
       <c r="AJ2" s="129"/>
       <c r="AK2" s="132"/>
-      <c r="AL2" s="133" t="s">
+      <c r="AL2" s="135" t="s">
         <v>6</v>
       </c>
       <c r="AM2" s="140"/>
@@ -19699,7 +19699,7 @@
       <c r="AQ2" s="129"/>
       <c r="AR2" s="129"/>
       <c r="AS2" s="129"/>
-      <c r="AT2" s="134"/>
+      <c r="AT2" s="136"/>
     </row>
     <row r="3" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - Macroeconomic Populism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{374FA53E-6371-4DC4-9463-D8571967F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58A8D534-5F2D-4709-8302-5AE3E2358539}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{374FA53E-6371-4DC4-9463-D8571967F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFDB8CD0-2C81-4B1A-9F35-D4E7CCCDDA4F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1087,25 +1087,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9018,11 +9018,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BS2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BV4" sqref="BV4"/>
+      <selection pane="bottomRight" activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="2" spans="1:88" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="135" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="129"/>
@@ -9140,7 +9140,7 @@
       <c r="G2" s="129"/>
       <c r="H2" s="129"/>
       <c r="I2" s="130"/>
-      <c r="J2" s="131" t="s">
+      <c r="J2" s="136" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="129"/>
@@ -9150,7 +9150,7 @@
       <c r="O2" s="129"/>
       <c r="P2" s="129"/>
       <c r="Q2" s="132"/>
-      <c r="R2" s="133" t="s">
+      <c r="R2" s="128" t="s">
         <v>4</v>
       </c>
       <c r="S2" s="129"/>
@@ -9160,7 +9160,7 @@
       <c r="W2" s="129"/>
       <c r="X2" s="129"/>
       <c r="Y2" s="130"/>
-      <c r="Z2" s="134" t="s">
+      <c r="Z2" s="131" t="s">
         <v>5</v>
       </c>
       <c r="AA2" s="129"/>
@@ -9170,7 +9170,7 @@
       <c r="AE2" s="129"/>
       <c r="AF2" s="129"/>
       <c r="AG2" s="132"/>
-      <c r="AH2" s="135" t="s">
+      <c r="AH2" s="133" t="s">
         <v>6</v>
       </c>
       <c r="AI2" s="129"/>
@@ -9179,8 +9179,8 @@
       <c r="AL2" s="129"/>
       <c r="AM2" s="129"/>
       <c r="AN2" s="129"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="128" t="s">
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="135" t="s">
         <v>2</v>
       </c>
       <c r="AQ2" s="129"/>
@@ -9190,7 +9190,7 @@
       <c r="AU2" s="129"/>
       <c r="AV2" s="129"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="131" t="s">
+      <c r="AX2" s="136" t="s">
         <v>3</v>
       </c>
       <c r="AY2" s="129"/>
@@ -9200,7 +9200,7 @@
       <c r="BC2" s="129"/>
       <c r="BD2" s="129"/>
       <c r="BE2" s="132"/>
-      <c r="BF2" s="133" t="s">
+      <c r="BF2" s="128" t="s">
         <v>4</v>
       </c>
       <c r="BG2" s="129"/>
@@ -9210,7 +9210,7 @@
       <c r="BK2" s="129"/>
       <c r="BL2" s="129"/>
       <c r="BM2" s="130"/>
-      <c r="BN2" s="134" t="s">
+      <c r="BN2" s="131" t="s">
         <v>5</v>
       </c>
       <c r="BO2" s="129"/>
@@ -9220,7 +9220,7 @@
       <c r="BS2" s="129"/>
       <c r="BT2" s="129"/>
       <c r="BU2" s="132"/>
-      <c r="BV2" s="135" t="s">
+      <c r="BV2" s="133" t="s">
         <v>6</v>
       </c>
       <c r="BW2" s="129"/>
@@ -9229,7 +9229,7 @@
       <c r="BZ2" s="129"/>
       <c r="CA2" s="129"/>
       <c r="CB2" s="129"/>
-      <c r="CC2" s="136"/>
+      <c r="CC2" s="134"/>
       <c r="CH2" s="7"/>
       <c r="CI2" s="7"/>
       <c r="CJ2" s="7"/>
@@ -16986,16 +16986,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
     <mergeCell ref="BF2:BM2"/>
     <mergeCell ref="BN2:BU2"/>
     <mergeCell ref="BV2:CC2"/>
     <mergeCell ref="AP2:AW2"/>
     <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -19656,7 +19656,7 @@
       <c r="H2" s="141"/>
       <c r="I2" s="141"/>
       <c r="J2" s="142"/>
-      <c r="K2" s="131" t="s">
+      <c r="K2" s="136" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="137"/>
@@ -19667,7 +19667,7 @@
       <c r="Q2" s="129"/>
       <c r="R2" s="129"/>
       <c r="S2" s="132"/>
-      <c r="T2" s="133" t="s">
+      <c r="T2" s="128" t="s">
         <v>4</v>
       </c>
       <c r="U2" s="138"/>
@@ -19678,7 +19678,7 @@
       <c r="Z2" s="129"/>
       <c r="AA2" s="129"/>
       <c r="AB2" s="130"/>
-      <c r="AC2" s="134" t="s">
+      <c r="AC2" s="131" t="s">
         <v>5</v>
       </c>
       <c r="AD2" s="139"/>
@@ -19689,7 +19689,7 @@
       <c r="AI2" s="129"/>
       <c r="AJ2" s="129"/>
       <c r="AK2" s="132"/>
-      <c r="AL2" s="135" t="s">
+      <c r="AL2" s="133" t="s">
         <v>6</v>
       </c>
       <c r="AM2" s="140"/>
@@ -19699,7 +19699,7 @@
       <c r="AQ2" s="129"/>
       <c r="AR2" s="129"/>
       <c r="AS2" s="129"/>
-      <c r="AT2" s="136"/>
+      <c r="AT2" s="134"/>
     </row>
     <row r="3" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">
@@ -23800,7 +23800,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25993,8 +25993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DFAAD8-1039-4857-8402-F6AF1BAA9BC3}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26061,10 +26061,7 @@
         <f>Complete!AN4</f>
         <v>708.6611105390499</v>
       </c>
-      <c r="E2" s="120">
-        <f>Complete!AQ4</f>
-        <v>3743.1464087225322</v>
-      </c>
+      <c r="E2" s="120"/>
       <c r="F2" s="120">
         <f>Complete!AR4</f>
         <v>-2033.2748999334697</v>
@@ -26109,10 +26106,7 @@
         <f>Complete!AN5</f>
         <v>693.50128183178151</v>
       </c>
-      <c r="E3" s="120">
-        <f>Complete!AQ5</f>
-        <v>3396.8647363718192</v>
-      </c>
+      <c r="E3" s="120"/>
       <c r="F3" s="120">
         <f>Complete!AR5</f>
         <v>-1574.8992070749443</v>
@@ -26163,8 +26157,8 @@
         <v>696.04941471599807</v>
       </c>
       <c r="E4" s="120">
-        <f>Complete!AQ6</f>
-        <v>3356.0166807349306</v>
+        <f>DATA!AM6</f>
+        <v>23</v>
       </c>
       <c r="F4" s="120">
         <f>Complete!AR6</f>
@@ -26216,8 +26210,8 @@
         <v>745.74717459753447</v>
       </c>
       <c r="E5" s="120">
-        <f>Complete!AQ7</f>
-        <v>3189.3717982720846</v>
+        <f>DATA!AM7</f>
+        <v>22</v>
       </c>
       <c r="F5" s="120">
         <f>Complete!AR7</f>
@@ -26270,8 +26264,8 @@
         <v>681.89327783187468</v>
       </c>
       <c r="E6" s="120">
-        <f>Complete!AQ8</f>
-        <v>2464.161399519071</v>
+        <f>DATA!AM8</f>
+        <v>22</v>
       </c>
       <c r="F6" s="120">
         <f>Complete!AR8</f>
@@ -26321,8 +26315,8 @@
         <v>620.09122613804743</v>
       </c>
       <c r="E7" s="120">
-        <f>Complete!AQ9</f>
-        <v>2028.443877430167</v>
+        <f>DATA!AM9</f>
+        <v>27</v>
       </c>
       <c r="F7" s="120">
         <f>Complete!AR9</f>
@@ -26364,8 +26358,8 @@
         <v>653.68611749721254</v>
       </c>
       <c r="E8" s="120">
-        <f>Complete!AQ10</f>
-        <v>2186.7945460695773</v>
+        <f>DATA!AM10</f>
+        <v>29</v>
       </c>
       <c r="F8" s="120">
         <f>Complete!AR10</f>
@@ -26407,8 +26401,8 @@
         <v>530.59430767423078</v>
       </c>
       <c r="E9" s="120">
-        <f>Complete!AQ11</f>
-        <v>1864.6030893322313</v>
+        <f>DATA!AM11</f>
+        <v>24</v>
       </c>
       <c r="F9" s="120">
         <f>Complete!AR11</f>
@@ -26450,8 +26444,8 @@
         <v>438.48929554838304</v>
       </c>
       <c r="E10" s="120">
-        <f>Complete!AQ12</f>
-        <v>1804.6657649372937</v>
+        <f>DATA!AM12</f>
+        <v>27</v>
       </c>
       <c r="F10" s="120">
         <f>Complete!AR12</f>
@@ -26493,8 +26487,8 @@
         <v>503.6583047292886</v>
       </c>
       <c r="E11" s="120">
-        <f>Complete!AQ13</f>
-        <v>1813.3991955954698</v>
+        <f>DATA!AM13</f>
+        <v>26</v>
       </c>
       <c r="F11" s="120">
         <f>Complete!AR13</f>
@@ -26536,8 +26530,8 @@
         <v>516.0866499814482</v>
       </c>
       <c r="E12" s="120">
-        <f>Complete!AQ14</f>
-        <v>1708.2401357556519</v>
+        <f>DATA!AM14</f>
+        <v>27</v>
       </c>
       <c r="F12" s="120">
         <f>Complete!AR14</f>
@@ -26580,8 +26574,8 @@
         <v>569.62010019242348</v>
       </c>
       <c r="E13" s="120">
-        <f>Complete!AQ15</f>
-        <v>1872.7964094239578</v>
+        <f>DATA!AM15</f>
+        <v>31</v>
       </c>
       <c r="F13" s="120">
         <f>Complete!AR15</f>
@@ -26623,8 +26617,8 @@
         <v>641.48323676677342</v>
       </c>
       <c r="E14" s="120">
-        <f>Complete!AQ16</f>
-        <v>2193.4612443112565</v>
+        <f>DATA!AM16</f>
+        <v>28</v>
       </c>
       <c r="F14" s="120">
         <f>Complete!AR16</f>
@@ -26666,8 +26660,8 @@
         <v>602.49919688628734</v>
       </c>
       <c r="E15" s="120">
-        <f>Complete!AQ17</f>
-        <v>2214.966093924595</v>
+        <f>DATA!AM17</f>
+        <v>27</v>
       </c>
       <c r="F15" s="120">
         <f>Complete!AR17</f>
@@ -26709,8 +26703,8 @@
         <v>685.61976231428537</v>
       </c>
       <c r="E16" s="120">
-        <f>Complete!AQ18</f>
-        <v>2663.6158699506195</v>
+        <f>DATA!AM18</f>
+        <v>27</v>
       </c>
       <c r="F16" s="120">
         <f>Complete!AR18</f>
@@ -26755,8 +26749,8 @@
         <v>555.75092442582945</v>
       </c>
       <c r="E17" s="120">
-        <f>Complete!AQ19</f>
-        <v>2436.4756618614774</v>
+        <f>DATA!AM19</f>
+        <v>22</v>
       </c>
       <c r="F17" s="120">
         <f>Complete!AR19</f>
@@ -26801,8 +26795,8 @@
         <v>565.8536593595984</v>
       </c>
       <c r="E18" s="120">
-        <f>Complete!AQ20</f>
-        <v>2676.1295562908344</v>
+        <f>DATA!AM20</f>
+        <v>26</v>
       </c>
       <c r="F18" s="120">
         <f>Complete!AR20</f>
@@ -26847,8 +26841,8 @@
         <v>648.55443995007647</v>
       </c>
       <c r="E19" s="120">
-        <f>Complete!AQ21</f>
-        <v>2801.0982707322109</v>
+        <f>DATA!AM21</f>
+        <v>29</v>
       </c>
       <c r="F19" s="120">
         <f>Complete!AR21</f>
@@ -26893,8 +26887,8 @@
         <v>635.41777164386974</v>
       </c>
       <c r="E20" s="120">
-        <f>Complete!AQ22</f>
-        <v>3204.5438154155854</v>
+        <f>DATA!AM22</f>
+        <v>32</v>
       </c>
       <c r="F20" s="120">
         <f>Complete!AR22</f>
@@ -26939,8 +26933,8 @@
         <v>733.02848106752617</v>
       </c>
       <c r="E21" s="120">
-        <f>Complete!AQ23</f>
-        <v>3599.7734110001475</v>
+        <f>DATA!AM23</f>
+        <v>37</v>
       </c>
       <c r="F21" s="120"/>
       <c r="G21" s="121">
@@ -26972,10 +26966,7 @@
         <f>Complete!AN24</f>
         <v>602.71018731718164</v>
       </c>
-      <c r="E22" s="120">
-        <f>Complete!AQ24</f>
-        <v>3127.0369820223714</v>
-      </c>
+      <c r="E22" s="120"/>
       <c r="F22" s="120"/>
       <c r="G22" s="121">
         <f>Complete!AS24</f>
@@ -27006,10 +26997,7 @@
         <f>Complete!AN25</f>
         <v>509.01632465572641</v>
       </c>
-      <c r="E23" s="120">
-        <f>Complete!AQ25</f>
-        <v>3417.8440152186668</v>
-      </c>
+      <c r="E23" s="120"/>
       <c r="F23" s="120"/>
       <c r="G23" s="121">
         <f>Complete!AS25</f>
@@ -27040,10 +27028,7 @@
         <f>Complete!AN26</f>
         <v>439.55311495820638</v>
       </c>
-      <c r="E24" s="120">
-        <f>Complete!AQ26</f>
-        <v>2751.2272165080503</v>
-      </c>
+      <c r="E24" s="120"/>
       <c r="F24" s="120"/>
       <c r="G24" s="121"/>
       <c r="H24" s="120">
@@ -27071,10 +27056,7 @@
         <f>Complete!AN27</f>
         <v>363.90050974280365</v>
       </c>
-      <c r="E25" s="120">
-        <f>Complete!AQ27</f>
-        <v>2159.0286426102684</v>
-      </c>
+      <c r="E25" s="120"/>
       <c r="F25" s="120"/>
       <c r="G25" s="121"/>
       <c r="H25" s="120"/>
@@ -27099,10 +27081,7 @@
         <f>Complete!AN28</f>
         <v>244.47438392369375</v>
       </c>
-      <c r="E26" s="120">
-        <f>Complete!AQ28</f>
-        <v>1403.4666687914578</v>
-      </c>
+      <c r="E26" s="120"/>
       <c r="F26" s="120"/>
       <c r="G26" s="121"/>
       <c r="H26" s="120"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - Macroeconomic Populism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="8_{374FA53E-6371-4DC4-9463-D8571967F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFDB8CD0-2C81-4B1A-9F35-D4E7CCCDDA4F}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{374FA53E-6371-4DC4-9463-D8571967F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155DB460-E820-4553-9B7A-CE29BBE82C9D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1087,25 +1087,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9018,7 +9018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="2" spans="1:88" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="128" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="129"/>
@@ -9140,7 +9140,7 @@
       <c r="G2" s="129"/>
       <c r="H2" s="129"/>
       <c r="I2" s="130"/>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="131" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="129"/>
@@ -9150,7 +9150,7 @@
       <c r="O2" s="129"/>
       <c r="P2" s="129"/>
       <c r="Q2" s="132"/>
-      <c r="R2" s="128" t="s">
+      <c r="R2" s="133" t="s">
         <v>4</v>
       </c>
       <c r="S2" s="129"/>
@@ -9160,7 +9160,7 @@
       <c r="W2" s="129"/>
       <c r="X2" s="129"/>
       <c r="Y2" s="130"/>
-      <c r="Z2" s="131" t="s">
+      <c r="Z2" s="134" t="s">
         <v>5</v>
       </c>
       <c r="AA2" s="129"/>
@@ -9170,7 +9170,7 @@
       <c r="AE2" s="129"/>
       <c r="AF2" s="129"/>
       <c r="AG2" s="132"/>
-      <c r="AH2" s="133" t="s">
+      <c r="AH2" s="135" t="s">
         <v>6</v>
       </c>
       <c r="AI2" s="129"/>
@@ -9179,8 +9179,8 @@
       <c r="AL2" s="129"/>
       <c r="AM2" s="129"/>
       <c r="AN2" s="129"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="135" t="s">
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="128" t="s">
         <v>2</v>
       </c>
       <c r="AQ2" s="129"/>
@@ -9190,7 +9190,7 @@
       <c r="AU2" s="129"/>
       <c r="AV2" s="129"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="136" t="s">
+      <c r="AX2" s="131" t="s">
         <v>3</v>
       </c>
       <c r="AY2" s="129"/>
@@ -9200,7 +9200,7 @@
       <c r="BC2" s="129"/>
       <c r="BD2" s="129"/>
       <c r="BE2" s="132"/>
-      <c r="BF2" s="128" t="s">
+      <c r="BF2" s="133" t="s">
         <v>4</v>
       </c>
       <c r="BG2" s="129"/>
@@ -9210,7 +9210,7 @@
       <c r="BK2" s="129"/>
       <c r="BL2" s="129"/>
       <c r="BM2" s="130"/>
-      <c r="BN2" s="131" t="s">
+      <c r="BN2" s="134" t="s">
         <v>5</v>
       </c>
       <c r="BO2" s="129"/>
@@ -9220,7 +9220,7 @@
       <c r="BS2" s="129"/>
       <c r="BT2" s="129"/>
       <c r="BU2" s="132"/>
-      <c r="BV2" s="133" t="s">
+      <c r="BV2" s="135" t="s">
         <v>6</v>
       </c>
       <c r="BW2" s="129"/>
@@ -9229,7 +9229,7 @@
       <c r="BZ2" s="129"/>
       <c r="CA2" s="129"/>
       <c r="CB2" s="129"/>
-      <c r="CC2" s="134"/>
+      <c r="CC2" s="136"/>
       <c r="CH2" s="7"/>
       <c r="CI2" s="7"/>
       <c r="CJ2" s="7"/>
@@ -16986,16 +16986,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="R2:Y2"/>
     <mergeCell ref="Z2:AG2"/>
     <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="BF2:BM2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -19656,7 +19656,7 @@
       <c r="H2" s="141"/>
       <c r="I2" s="141"/>
       <c r="J2" s="142"/>
-      <c r="K2" s="136" t="s">
+      <c r="K2" s="131" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="137"/>
@@ -19667,7 +19667,7 @@
       <c r="Q2" s="129"/>
       <c r="R2" s="129"/>
       <c r="S2" s="132"/>
-      <c r="T2" s="128" t="s">
+      <c r="T2" s="133" t="s">
         <v>4</v>
       </c>
       <c r="U2" s="138"/>
@@ -19678,7 +19678,7 @@
       <c r="Z2" s="129"/>
       <c r="AA2" s="129"/>
       <c r="AB2" s="130"/>
-      <c r="AC2" s="131" t="s">
+      <c r="AC2" s="134" t="s">
         <v>5</v>
       </c>
       <c r="AD2" s="139"/>
@@ -19689,7 +19689,7 @@
       <c r="AI2" s="129"/>
       <c r="AJ2" s="129"/>
       <c r="AK2" s="132"/>
-      <c r="AL2" s="133" t="s">
+      <c r="AL2" s="135" t="s">
         <v>6</v>
       </c>
       <c r="AM2" s="140"/>
@@ -19699,7 +19699,7 @@
       <c r="AQ2" s="129"/>
       <c r="AR2" s="129"/>
       <c r="AS2" s="129"/>
-      <c r="AT2" s="134"/>
+      <c r="AT2" s="136"/>
     </row>
     <row r="3" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">
@@ -25993,8 +25993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DFAAD8-1039-4857-8402-F6AF1BAA9BC3}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26072,8 +26072,8 @@
         <v>10715241770.5819</v>
       </c>
       <c r="I2" s="121">
-        <f>6027.9</f>
-        <v>6027.9</v>
+        <f>-6027.9</f>
+        <v>-6027.9</v>
       </c>
       <c r="J2" s="120"/>
       <c r="K2" s="120"/>
@@ -26543,8 +26543,8 @@
         <v>29802940547.694599</v>
       </c>
       <c r="I12" s="121">
-        <f>--6955.9</f>
-        <v>6955.9</v>
+        <f>-6955.9</f>
+        <v>-6955.9</v>
       </c>
       <c r="J12" s="120"/>
       <c r="K12" s="120"/>
